--- a/mystock.xlsx
+++ b/mystock.xlsx
@@ -10419,7 +10419,7 @@
         <v>600809</v>
       </c>
       <c r="D5" s="61" t="n">
-        <v>264.12</v>
+        <v>264.57</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D5" s="61" t="n">
-        <v>11.19</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D5" s="61" t="n">
-        <v>22.48</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
@@ -13265,7 +13265,7 @@
         </is>
       </c>
       <c r="D5" s="61" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="D5" s="75" t="n">
-        <v>1.787</v>
+        <v>1.802</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">

--- a/mystock.xlsx
+++ b/mystock.xlsx
@@ -10419,7 +10419,7 @@
         <v>600809</v>
       </c>
       <c r="D5" s="61" t="n">
-        <v>264.57</v>
+        <v>257.45</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D5" s="61" t="n">
-        <v>11.23</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D5" s="61" t="n">
-        <v>22.76</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="D5" s="75" t="n">
-        <v>1.802</v>
+        <v>1.781</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" s="33">
